--- a/صيدليات دكتور مصطفي طلعت_2026-01-12_19-33.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-12_19-33.xlsx
@@ -92,12 +92,30 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -119,12 +137,6 @@
     <t>DIGEST EZE 20 CAPS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DIXVIT 10.000 I.U. 30 TABS.</t>
   </si>
   <si>
@@ -200,6 +212,12 @@
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
@@ -227,6 +245,9 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
     <t>TOBRADEX EYE SUSP. DROPS 5 ML</t>
   </si>
   <si>
@@ -246,6 +267,9 @@
   </si>
   <si>
     <t>7767:0</t>
+  </si>
+  <si>
+    <t>ZYROVAZET 10/20MG 30 F.C. TABLETS</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -1172,7 +1196,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1198,11 +1222,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1218,17 +1242,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1236,7 +1260,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1244,13 +1268,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>47.5</v>
+        <v>22.32</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1262,7 +1286,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1270,17 +1294,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1288,7 +1312,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1296,17 +1320,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1322,17 +1346,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>120</v>
+        <v>47.5</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1340,7 +1364,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1348,17 +1372,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1366,7 +1390,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1374,17 +1398,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1400,17 +1424,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>62.5</v>
+        <v>120</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1426,17 +1450,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>178.19999999999999</v>
+        <v>17</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1452,17 +1476,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>-96</v>
+        <v>38</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1470,7 +1494,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1478,17 +1502,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>33</v>
+        <v>62.5</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1504,17 +1528,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>-15</v>
+        <v>178.19999999999999</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1530,13 +1554,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>65</v>
+        <v>-96</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1548,7 +1572,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1556,13 +1580,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>381</v>
+        <v>33</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1582,17 +1606,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>32</v>
+        <v>-15</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1608,17 +1632,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>86.5</v>
+        <v>65</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1626,7 +1650,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1634,17 +1658,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1652,7 +1676,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1666,7 +1690,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1678,7 +1702,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1686,17 +1710,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>19</v>
+        <v>86.5</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1704,7 +1728,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1712,17 +1736,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1730,7 +1754,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1738,17 +1762,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1756,7 +1780,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1764,17 +1788,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1790,17 +1814,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1808,7 +1832,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1816,17 +1840,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1834,7 +1858,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1842,17 +1866,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1868,17 +1892,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1886,7 +1910,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1894,17 +1918,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>20.010000000000002</v>
+        <v>19</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1926,7 +1950,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>56.399999999999999</v>
+        <v>23</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1946,17 +1970,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>37.600000000000001</v>
+        <v>76</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1972,17 +1996,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1998,13 +2022,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>42</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2016,7 +2040,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2024,17 +2048,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>76</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2042,7 +2066,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2050,17 +2074,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>67.5</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2068,7 +2092,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2076,17 +2100,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2094,7 +2118,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2102,17 +2126,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>675</v>
+        <v>42</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2120,7 +2144,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2138,7 +2162,7 @@
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2146,7 +2170,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2154,13 +2178,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>2.5</v>
+        <v>76</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2172,7 +2196,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2180,17 +2204,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>12</v>
+        <v>67.5</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2206,13 +2230,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2224,7 +2248,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2232,13 +2256,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>2</v>
+        <v>675</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2250,7 +2274,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2258,13 +2282,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2276,7 +2300,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2284,13 +2308,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>196</v>
+        <v>2.5</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2316,11 +2340,11 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2336,17 +2360,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2354,7 +2378,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2362,17 +2386,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2380,7 +2404,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2388,17 +2412,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2406,7 +2430,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2414,17 +2438,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2432,7 +2456,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2440,51 +2464,207 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>54.450000000000003</v>
+        <v>196</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="65" ht="26.25" customHeight="1">
-      <c r="K65" s="10">
-        <v>3726.5599999999999</v>
-      </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="11">
-        <v>93</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c t="s" r="F66" s="12">
+    <row r="65" ht="25.5" customHeight="1">
+      <c r="A65" s="6">
+        <v>62</v>
+      </c>
+      <c t="s" r="B65" s="7">
         <v>94</v>
       </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="13"/>
-      <c t="s" r="I66" s="14">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c t="s" r="H65" s="8">
+        <v>32</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="9">
+        <v>20</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c t="s" r="N65" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" ht="24.75" customHeight="1">
+      <c r="A66" s="6">
+        <v>63</v>
+      </c>
+      <c t="s" r="B66" s="7">
         <v>95</v>
       </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c t="s" r="H66" s="8">
+        <v>9</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9">
+        <v>35</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c t="s" r="N66" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="6">
+        <v>64</v>
+      </c>
+      <c t="s" r="B67" s="7">
+        <v>96</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c t="s" r="H67" s="8">
+        <v>97</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9">
+        <v>15</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c t="s" r="N67" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" ht="25.5" customHeight="1">
+      <c r="A68" s="6">
+        <v>65</v>
+      </c>
+      <c t="s" r="B68" s="7">
+        <v>98</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c t="s" r="H68" s="8">
+        <v>9</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="9">
+        <v>40</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c t="s" r="N68" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" ht="24.75" customHeight="1">
+      <c r="A69" s="6">
+        <v>66</v>
+      </c>
+      <c t="s" r="B69" s="7">
+        <v>99</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c t="s" r="H69" s="8">
+        <v>65</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9">
+        <v>70</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c t="s" r="N69" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" ht="25.5" customHeight="1">
+      <c r="A70" s="6">
+        <v>67</v>
+      </c>
+      <c t="s" r="B70" s="7">
+        <v>100</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c t="s" r="H70" s="8">
+        <v>50</v>
+      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="9">
+        <v>54.450000000000003</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c t="s" r="N70" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="K71" s="10">
+        <v>4003.8800000000001</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="11">
+        <v>101</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c t="s" r="F72" s="12">
+        <v>102</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13"/>
+      <c t="s" r="I72" s="14">
+        <v>103</v>
+      </c>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="194">
+  <mergeCells count="212">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2675,10 +2855,28 @@
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="I72:N72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
